--- a/content/YEU_FinalReport.xlsx
+++ b/content/YEU_FinalReport.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7394" uniqueCount="1528">
   <si>
-    <t>classification</t>
+    <t>Cluster ID</t>
   </si>
   <si>
     <t>Customer Name</t>
@@ -30,7 +30,7 @@
     <t>Customer ID</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Site Name</t>
   </si>
   <si>
     <t>Address</t>
@@ -5348,7 +5348,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="59.7109375" customWidth="1"/>
@@ -16304,7 +16304,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="64.7109375" customWidth="1"/>
